--- a/modelos/OBACON4426052/OBACON4426052_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426052/OBACON4426052_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>45008</v>
       </c>
       <c r="B2" t="n">
-        <v>22.90170864957747</v>
+        <v>22.87908935134215</v>
       </c>
       <c r="C2" t="n">
-        <v>8.348618900851182</v>
+        <v>8.88650145239119</v>
       </c>
       <c r="D2" t="n">
-        <v>37.529685438896</v>
+        <v>35.95025444685272</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,13 +496,13 @@
         <v>45012</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.631834283143228</v>
+        <v>-5.810940087677647</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.9791519735149</v>
+        <v>-19.9943172760198</v>
       </c>
       <c r="D3" t="n">
-        <v>8.335357961504954</v>
+        <v>8.780031538017315</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -516,13 +516,13 @@
         <v>45017</v>
       </c>
       <c r="B4" t="n">
-        <v>-19.69443179030431</v>
+        <v>-19.68385597995907</v>
       </c>
       <c r="C4" t="n">
-        <v>-34.49181473751739</v>
+        <v>-33.12353859258389</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.611733668715552</v>
+        <v>-5.257223229572867</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -536,13 +536,13 @@
         <v>45022</v>
       </c>
       <c r="B5" t="n">
-        <v>12.53224765452604</v>
+        <v>12.54336363230678</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.85763695191922</v>
+        <v>-1.929662556548994</v>
       </c>
       <c r="D5" t="n">
-        <v>27.19856050505804</v>
+        <v>26.80071365395216</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -556,13 +556,13 @@
         <v>45035</v>
       </c>
       <c r="B6" t="n">
-        <v>-19.83687603551486</v>
+        <v>-19.83160580248806</v>
       </c>
       <c r="C6" t="n">
-        <v>-34.7752974771509</v>
+        <v>-34.24398791309825</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.127746809051234</v>
+        <v>-4.672931412264131</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -573,41 +573,21 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45052</v>
+        <v>45054</v>
       </c>
       <c r="B7" t="n">
-        <v>-25.68248930528734</v>
+        <v>-19.0042609522383</v>
       </c>
       <c r="C7" t="n">
-        <v>-40.49025915637437</v>
+        <v>-34.64026423374105</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.15991726108049</v>
+        <v>-4.693020142635951</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-18.82787347095461</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-31.84900928625504</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-3.925008413341661</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -677,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>285.2742935590969</v>
+        <v>284.8851701312244</v>
       </c>
       <c r="C2" t="n">
-        <v>16.89006493649734</v>
+        <v>16.87854170629751</v>
       </c>
       <c r="D2" t="n">
-        <v>15.71697815205175</v>
+        <v>15.71122649182446</v>
       </c>
       <c r="E2" t="n">
-        <v>12.53956226720974</v>
+        <v>12.53010528105554</v>
       </c>
       <c r="F2" t="n">
-        <v>12.53956226720974</v>
+        <v>12.53010528105554</v>
       </c>
       <c r="G2" t="n">
-        <v>1.530030879974647</v>
+        <v>1.530227879468713</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -703,19 +683,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>428.2595071235578</v>
+        <v>427.8218981996887</v>
       </c>
       <c r="C3" t="n">
-        <v>20.69443179030431</v>
+        <v>20.68385597995907</v>
       </c>
       <c r="D3" t="n">
-        <v>20.69443179030431</v>
+        <v>20.68385597995907</v>
       </c>
       <c r="E3" t="n">
-        <v>20.69443179030431</v>
+        <v>20.68385597995907</v>
       </c>
       <c r="F3" t="n">
-        <v>20.69443179030431</v>
+        <v>20.68385597995907</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -729,25 +709,25 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>405.1507200482109</v>
+        <v>46.38890487793439</v>
       </c>
       <c r="C4" t="n">
-        <v>20.12835611887396</v>
+        <v>6.810940087677647</v>
       </c>
       <c r="D4" t="n">
-        <v>17.15716179421528</v>
+        <v>6.810940087677647</v>
       </c>
       <c r="E4" t="n">
-        <v>10.23653946789345</v>
+        <v>6.810940087677647</v>
       </c>
       <c r="F4" t="n">
-        <v>10.23653946789345</v>
+        <v>6.810940087677647</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -755,19 +735,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>434.9968606853144</v>
+        <v>438.3947340802382</v>
       </c>
       <c r="C5" t="n">
-        <v>20.85657835516925</v>
+        <v>20.93787797462384</v>
       </c>
       <c r="D5" t="n">
-        <v>20.83237475323473</v>
+        <v>20.91793337736318</v>
       </c>
       <c r="E5" t="n">
-        <v>15.37315574435602</v>
+        <v>15.46003192674116</v>
       </c>
       <c r="F5" t="n">
-        <v>15.37315574435602</v>
+        <v>15.46003192674116</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>

--- a/modelos/OBACON4426052/OBACON4426052_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426052/OBACON4426052_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>45008</v>
       </c>
       <c r="B2" t="n">
-        <v>22.87908935134215</v>
+        <v>22.87908935134237</v>
       </c>
       <c r="C2" t="n">
-        <v>8.88650145239119</v>
+        <v>8.616525732166183</v>
       </c>
       <c r="D2" t="n">
-        <v>35.95025444685272</v>
+        <v>37.86258921250832</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,13 +496,13 @@
         <v>45012</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.810940087677647</v>
+        <v>-5.81094008767742</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.9943172760198</v>
+        <v>-19.54660099942684</v>
       </c>
       <c r="D3" t="n">
-        <v>8.780031538017315</v>
+        <v>8.34807944997557</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -516,13 +516,13 @@
         <v>45017</v>
       </c>
       <c r="B4" t="n">
-        <v>-19.68385597995907</v>
+        <v>-19.68385597995879</v>
       </c>
       <c r="C4" t="n">
-        <v>-33.12353859258389</v>
+        <v>-33.43502664239903</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.257223229572867</v>
+        <v>-5.279869989252468</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -536,13 +536,13 @@
         <v>45022</v>
       </c>
       <c r="B5" t="n">
-        <v>12.54336363230678</v>
+        <v>12.54336363230679</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.929662556548994</v>
+        <v>-2.528167905941388</v>
       </c>
       <c r="D5" t="n">
-        <v>26.80071365395216</v>
+        <v>27.59280216471712</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -556,13 +556,13 @@
         <v>45035</v>
       </c>
       <c r="B6" t="n">
-        <v>-19.83160580248806</v>
+        <v>-19.83160580248789</v>
       </c>
       <c r="C6" t="n">
-        <v>-34.24398791309825</v>
+        <v>-34.26253143519173</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.672931412264131</v>
+        <v>-5.396470055777323</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -573,21 +573,41 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>45052</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-25.67523094207513</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-41.43064766242237</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-10.28051267365937</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45054</v>
       </c>
-      <c r="B7" t="n">
-        <v>-19.0042609522383</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-34.64026423374105</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-4.693020142635951</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="B8" t="n">
+        <v>-19.00426095223965</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-33.10338952146817</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-4.40702046592606</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -657,22 +677,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>284.8851701312244</v>
+        <v>284.8851701312295</v>
       </c>
       <c r="C2" t="n">
-        <v>16.87854170629751</v>
+        <v>16.87854170629766</v>
       </c>
       <c r="D2" t="n">
-        <v>15.71122649182446</v>
+        <v>15.71122649182458</v>
       </c>
       <c r="E2" t="n">
-        <v>12.53010528105554</v>
+        <v>12.53010528105565</v>
       </c>
       <c r="F2" t="n">
-        <v>12.53010528105554</v>
+        <v>12.53010528105565</v>
       </c>
       <c r="G2" t="n">
-        <v>1.530227879468713</v>
+        <v>1.530227879468714</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -683,19 +703,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>427.8218981996887</v>
+        <v>427.8218981996768</v>
       </c>
       <c r="C3" t="n">
-        <v>20.68385597995907</v>
+        <v>20.68385597995879</v>
       </c>
       <c r="D3" t="n">
-        <v>20.68385597995907</v>
+        <v>20.68385597995879</v>
       </c>
       <c r="E3" t="n">
-        <v>20.68385597995907</v>
+        <v>20.68385597995879</v>
       </c>
       <c r="F3" t="n">
-        <v>20.68385597995907</v>
+        <v>20.68385597995879</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -709,25 +729,25 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>46.38890487793439</v>
+        <v>406.1536562875621</v>
       </c>
       <c r="C4" t="n">
-        <v>6.810940087677647</v>
+        <v>20.15325423567028</v>
       </c>
       <c r="D4" t="n">
-        <v>6.810940087677647</v>
+        <v>17.24308551487628</v>
       </c>
       <c r="E4" t="n">
-        <v>6.810940087677647</v>
+        <v>10.32427777935749</v>
       </c>
       <c r="F4" t="n">
-        <v>6.810940087677647</v>
+        <v>10.32427777935749</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -735,19 +755,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>438.3947340802382</v>
+        <v>438.3947340802614</v>
       </c>
       <c r="C5" t="n">
-        <v>20.93787797462384</v>
+        <v>20.9378779746244</v>
       </c>
       <c r="D5" t="n">
-        <v>20.91793337736318</v>
+        <v>20.91793337736377</v>
       </c>
       <c r="E5" t="n">
-        <v>15.46003192674116</v>
+        <v>15.4600319267418</v>
       </c>
       <c r="F5" t="n">
-        <v>15.46003192674116</v>
+        <v>15.4600319267418</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>

--- a/modelos/OBACON4426052/OBACON4426052_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426052/OBACON4426052_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,10 +479,10 @@
         <v>22.87908935134237</v>
       </c>
       <c r="C2" t="n">
-        <v>8.616525732166183</v>
+        <v>8.087645207894399</v>
       </c>
       <c r="D2" t="n">
-        <v>37.86258921250832</v>
+        <v>36.19717108297922</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -499,10 +499,10 @@
         <v>-5.81094008767742</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.54660099942684</v>
+        <v>-20.08723779236888</v>
       </c>
       <c r="D3" t="n">
-        <v>8.34807944997557</v>
+        <v>8.818668724118016</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,10 +519,10 @@
         <v>-19.68385597995879</v>
       </c>
       <c r="C4" t="n">
-        <v>-33.43502664239903</v>
+        <v>-34.64485588708</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.279869989252468</v>
+        <v>-5.340719809660158</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -539,10 +539,10 @@
         <v>12.54336363230679</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.528167905941388</v>
+        <v>-2.559606368057509</v>
       </c>
       <c r="D5" t="n">
-        <v>27.59280216471712</v>
+        <v>27.80872502710166</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -559,10 +559,10 @@
         <v>-19.83160580248789</v>
       </c>
       <c r="C6" t="n">
-        <v>-34.26253143519173</v>
+        <v>-35.28003128718424</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.396470055777323</v>
+        <v>-5.304967305405923</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -573,41 +573,21 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45052</v>
+        <v>45054</v>
       </c>
       <c r="B7" t="n">
-        <v>-25.67523094207513</v>
+        <v>-19.00426095223965</v>
       </c>
       <c r="C7" t="n">
-        <v>-41.43064766242237</v>
+        <v>-32.97886860159507</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.28051267365937</v>
+        <v>-4.408418162221845</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-19.00426095223965</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-33.10338952146817</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-4.40702046592606</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -729,25 +709,25 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>406.1536562875621</v>
+        <v>46.3889048779313</v>
       </c>
       <c r="C4" t="n">
-        <v>20.15325423567028</v>
+        <v>6.81094008767742</v>
       </c>
       <c r="D4" t="n">
-        <v>17.24308551487628</v>
+        <v>6.81094008767742</v>
       </c>
       <c r="E4" t="n">
-        <v>10.32427777935749</v>
+        <v>6.81094008767742</v>
       </c>
       <c r="F4" t="n">
-        <v>10.32427777935749</v>
+        <v>6.81094008767742</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
